--- a/dict.xlsx
+++ b/dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49096950-0E07-4451-9682-51C4DB8D270E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{940AC27A-9DC8-404D-9A95-B7858519EE8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5865" xr2:uid="{E7766D5F-25A3-42C7-A73C-C962ED934133}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>isempty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,25 @@
   <si>
     <t>repmat</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partialsortperm(A,1:3,rev=true）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partialsortperm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partialsortperm(A,1:3)</t>
   </si>
 </sst>
 </file>
@@ -749,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DE37B6-4954-4F4A-898D-2F5571B09236}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1290,6 +1309,40 @@
         <v>91</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dict.xlsx
+++ b/dict.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myworks\MatFun.jl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{940AC27A-9DC8-404D-9A95-B7858519EE8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5BE055A-F79B-4C08-A01D-C067F4C03937}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5865" xr2:uid="{E7766D5F-25A3-42C7-A73C-C962ED934133}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>isempty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,16 @@
   </si>
   <si>
     <t>partialsortperm(A,1:3)</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum</t>
   </si>
 </sst>
 </file>
@@ -768,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DE37B6-4954-4F4A-898D-2F5571B09236}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,6 +1353,34 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dict.xlsx
+++ b/dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myworks\MatFun.jl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5BE055A-F79B-4C08-A01D-C067F4C03937}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D19C6BE3-A816-4660-84CF-4F9F98042E02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5865" xr2:uid="{E7766D5F-25A3-42C7-A73C-C962ED934133}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
   <si>
     <t>isempty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,65 @@
   </si>
   <si>
     <t>minimum</t>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randperm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should using Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteat!</t>
+  </si>
+  <si>
+    <t>deleteat!(A,3:5)</t>
+  </si>
+  <si>
+    <t>left no need the array itself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>string or string array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse.</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string or array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string or  array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -778,10 +837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DE37B6-4954-4F4A-898D-2F5571B09236}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -1367,9 +1427,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
         <v>103</v>
@@ -1379,6 +1439,79 @@
       </c>
       <c r="D34" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
